--- a/24Su Schedule.xlsx
+++ b/24Su Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\repos\mcnair_academic_writing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatal\OneDrive\Documents\.repos\mcnair_academic_writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B204D6-BDBF-4473-B03A-0EC75D373C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD7D8B8-0A1E-4AB7-94B9-B73D5C89F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{44180262-F9C1-42F0-8F3A-1B9C1CDE65F5}"/>
+    <workbookView xWindow="-132" yWindow="5436" windowWidth="21624" windowHeight="11304" xr2:uid="{44180262-F9C1-42F0-8F3A-1B9C1CDE65F5}"/>
   </bookViews>
   <sheets>
     <sheet name="6 classes" sheetId="2" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Figure/table Draft</t>
   </si>
   <si>
-    <t>Small Group: Introduction</t>
-  </si>
-  <si>
     <t>Small Group: Full Paper</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Final Proof Review</t>
+  </si>
+  <si>
+    <t>Methods at 3 Levels</t>
   </si>
 </sst>
 </file>
@@ -514,22 +514,22 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -546,16 +546,16 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45456</v>
       </c>
@@ -567,18 +567,15 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45456</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -587,15 +584,18 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45463</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -604,7 +604,7 @@
         <v>45470</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45470</v>
       </c>
@@ -615,7 +615,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -624,21 +624,21 @@
         <v>45484</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1">
         <v>45484</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45477</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45484</v>
       </c>
@@ -646,10 +646,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -658,50 +658,50 @@
         <v>45491</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45491</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
       </c>
       <c r="F8" s="1">
         <v>45498</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1">
         <v>45505</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45498</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1">
         <v>45505</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M11" t="s">
         <v>9</v>
       </c>
